--- a/Turma Intensivo - 439 - Noite Julho 2017/Aula 5/PROCV 2 E TEXTOS Codigos Produtos.xlsx
+++ b/Turma Intensivo - 439 - Noite Julho 2017/Aula 5/PROCV 2 E TEXTOS Codigos Produtos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio\Desktop\TeachX.git\trunk\Turma Intensivo - Manhã Julho 2017\Aula 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcio\Desktop\TeachX.git\trunk\Turma Intensivo - 439 - Noite Julho 2017\Aula 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Estoque" sheetId="4" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>Produto</t>
   </si>
@@ -359,15 +359,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>491573</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>549520</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>92067</xdr:rowOff>
+      <xdr:colOff>574367</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>183174</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -397,8 +397,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4657726" y="0"/>
-          <a:ext cx="3731602" cy="2021915"/>
+          <a:off x="4707421" y="1996107"/>
+          <a:ext cx="3760272" cy="2021915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -750,22 +750,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I9" sqref="G1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -782,118 +783,287 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f>VLOOKUP(LEFT(B2,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Alimentação básica</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>IF(MID(B2,2,3)="CBS","Cesta Básica","")</f>
+        <v>Cesta Básica</v>
+      </c>
+      <c r="E2" t="str">
+        <f>VLOOKUP(MID(B2,5,2),$G$3:$H$7,2,FALSE)</f>
+        <v>Pedras Azuis</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f>VLOOKUP(LEFT(B3,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Alimentação básica</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D13" si="0">IF(MID(B3,2,3)="CBS","Cesta Básica","")</f>
+        <v>Cesta Básica</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E13" si="1">VLOOKUP(MID(B3,5,2),$G$3:$H$7,2,FALSE)</f>
+        <v>Rápido do Brasil</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="str">
+        <f>VLOOKUP(LEFT(B4,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Chocolate</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>Martins e Filhos</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="str">
+        <f>VLOOKUP(LEFT(B5,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Doces</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>Rápido do Brasil</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f>VLOOKUP(LEFT(B6,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Limpeza</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cesta Básica</v>
+      </c>
+      <c r="E6" t="str">
+        <f>VLOOKUP(MID(B6,5,2),$G$3:$H$7,2,FALSE)</f>
+        <v>Pedras Azuis</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f>VLOOKUP(LEFT(B7,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Limpeza</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>Pedras Azuis</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f>VLOOKUP(LEFT(B8,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Biscoitos e Bolachas</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cesta Básica</v>
+      </c>
+      <c r="E8" t="str">
+        <f>VLOOKUP(MID(B8,5,2),$G$3:$H$7,2,FALSE)</f>
+        <v>Rápido do Brasil</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="str">
+        <f>VLOOKUP(LEFT(B9,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Alimentação básica</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cesta Básica</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>Rápido do Brasil</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <f>VLOOKUP(LEFT(B10,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Chocolate</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <f>VLOOKUP(MID(B10,5,2),$G$3:$H$7,2,FALSE)</f>
+        <v>Martins e Filhos</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" t="str">
+        <f>VLOOKUP(LEFT(B11,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Doces</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>Rápido do Brasil</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f>VLOOKUP(LEFT(B12,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Limpeza</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>Cesta Básica</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>Pedras Azuis</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f>VLOOKUP(LEFT(B13,1),Tabelas!$A$2:$B$6,2,FALSE)</f>
+        <v>Limpeza</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>Pedras Azuis</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -905,7 +1075,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D1" sqref="D1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
